--- a/extracted_excel/West_gendered_enterprise.xlsx
+++ b/extracted_excel/West_gendered_enterprise.xlsx
@@ -1,29 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AAAA_Data\GENDER\extracted_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED52832-3CA2-4CA3-9B4D-81DE4232B0E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Theme</t>
   </si>
@@ -34,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -163,10 +151,7 @@
     <t>Cultural limitation- prevents women from venturing in their enterprises eg women cannot herd camels or cows policy incentives- the county is promoting kitchen garden for nutritional purpose Availability of resources-women venture into those enterprises with less capital intensity Market-the enterprises women lead in are market ready their enterprises are for subsistence -they major on what the family use and get some income</t>
   </si>
   <si>
-    <t>No response provided</t>
-  </si>
-  <si>
-    <t>Enterprise Gender role in value chain why Maize women-planting, weeding, harvesting, ploughing men-ploughing, weeding, harvesting, marketing youth-ploughing, weeding, harvesting, spraying, elderly - -its a shared responsibility -maize being a staple food, they play equal roles. - men do marketing as they are the key decision makers on money Beans women-planting, weeding, harvesting, ploughing , marketing men-planting, weeding, harvesting, ploughing youth-ploughing, weeding, harvesting, spraying elderly - - women do marketing of the commodity which is not in large quantities -men- a shared responsibility -beans being a staple food, they play equal roles. youth- a shared responsibility -beans being a staple food, they play equal roles. Avocado women-marketing, men-harvesting, planting, digging of holes youth-harvesting, planting, harvesting, digging of holes less profit for the enterprise the enterprise doesn't grow quickly-local ones -men play out their roles because they are labour intensive cattle women-women,herding-depends on zones, milking, marketing in small quantities men-herding, watering, dipping, deworming, marketing, establishment youth-herding, watering, dipping, deworming, marketing,</t>
+    <t>Enterprise Gender role in value chain why Maize women-planting, weeding, harvesting, ploughing men-ploughing, weeding, harvesting, marketing youth-ploughing, weeding, harvesting, spraying, elderly - -its a shared responsibility -maize being a staple food, they play equal roles. - men do marketing as they are the key decision makers on money Beans women-planting, weeding, harvesting, ploughing , marketing men-planting, weeding, harvesting, ploughing youth-ploughing, weeding, harvesting, spraying elderly - - women do marketing of the commodity which is not in large quantities -men- a shared responsibility -beans being a staple food, they play equal roles. youth- a shared responsibility -beans being a staple food, they play equal roles. Avocado women-marketing, men-harvesting, planting, digging of holes youth-harvesting, planting, harvesting, digging of holes less profit for the enterprise the enterprise doesn't grow quickly-local ones -men play out their roles because they are labour intensive cattle women-women,herding-depends on zones, milking, marketing in small quantities  men-herding, watering, dipping, deworming, marketing, establishment  youth-herding, watering, dipping, deworming, marketing,</t>
   </si>
   <si>
     <t>Goats-galla breed are resilient Sheep-dorper sheep Kitchen gardening-to produce vegetables introduction of early maturing crops and those that are drought tolerant-greengrams, nyota beans, KS20 greengram, bulb onions, water melons and tomatoes Camels-resilient Beekeeping aquaculture through farm ponds-not many</t>
@@ -217,8 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,14 +266,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -335,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,27 +344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -419,24 +378,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,18 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="107.5703125" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,414 +570,306 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
